--- a/Color_Cell.xlsx
+++ b/Color_Cell.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UiPath\TestAutomationProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UiPath\Test_Automation_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2579BA-D0C4-4298-8571-1119A984C239}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E414FFAD-44AD-4FCA-82AF-50FBBC2C7E9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3860" yWindow="2020" windowWidth="14400" windowHeight="7360" xr2:uid="{BF24CFCC-D83A-4D30-9B8C-1223978250CD}"/>
   </bookViews>
@@ -50,7 +50,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF36E2D7"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
